--- a/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_2_31.xlsx
+++ b/model/Outputs/8. Fixed RE/With PV/Output Files/20/Output_2_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3426254.927113069</v>
+        <v>3426254.927113065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>80663.73099500434</v>
+        <v>16052082.4680059</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80663.73099500434</v>
+        <v>16052082.4680059</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>65614.34050177186</v>
+        <v>3940022.790762843</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>65614.34050177186</v>
+        <v>3940022.790762843</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1494146826.703394</v>
+        <v>56586889.23296212</v>
       </c>
     </row>
   </sheetData>
@@ -682,7 +682,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H2" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T2" t="n">
         <v>560.964918411981</v>
@@ -764,7 +764,7 @@
         <v>301.8178796392513</v>
       </c>
       <c r="I3" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S3" t="n">
         <v>408.192915058951</v>
@@ -870,7 +870,7 @@
         <v>105.228266425598</v>
       </c>
       <c r="R4" t="n">
-        <v>208.1413738827904</v>
+        <v>208.1413738827905</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H5" t="n">
-        <v>346.4706963200988</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T5" t="n">
         <v>560.964918411981</v>
@@ -986,13 +986,13 @@
         <v>361.0999124455193</v>
       </c>
       <c r="D6" t="n">
-        <v>347.9376868977026</v>
+        <v>346.4039869401295</v>
       </c>
       <c r="E6" t="n">
         <v>342.6720972219126</v>
       </c>
       <c r="F6" t="n">
-        <v>338.1025423803039</v>
+        <v>339.6362423378769</v>
       </c>
       <c r="G6" t="n">
         <v>322.5970075731406</v>
@@ -1232,13 +1232,13 @@
         <v>339.6362423378769</v>
       </c>
       <c r="G9" t="n">
-        <v>321.0633076155676</v>
+        <v>322.5970075731406</v>
       </c>
       <c r="H9" t="n">
         <v>301.8178796392513</v>
       </c>
       <c r="I9" t="n">
-        <v>108.929687778141</v>
+        <v>107.3959878205679</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F11" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150354</v>
       </c>
       <c r="G11" t="n">
         <v>397.8840054528454</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>359.620476775678</v>
+        <v>361.0088210686545</v>
       </c>
       <c r="T11" t="n">
         <v>560.964918411981</v>
@@ -1587,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>480.610968662598</v>
+        <v>481.9993129555745</v>
       </c>
       <c r="C14" t="n">
         <v>449.4745782429939</v>
@@ -1630,7 +1630,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H14" t="n">
-        <v>347.8590406130752</v>
+        <v>346.4706963201366</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>350.6276822404662</v>
+        <v>352.1613821980396</v>
       </c>
       <c r="S15" t="n">
-        <v>408.192915058951</v>
+        <v>406.6592151013782</v>
       </c>
       <c r="T15" t="n">
         <v>392.6911708778912</v>
@@ -1861,13 +1861,13 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F17" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844150262</v>
       </c>
       <c r="G17" t="n">
         <v>397.8840054528454</v>
       </c>
       <c r="H17" t="n">
-        <v>346.4706963202555</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H20" t="n">
-        <v>346.4706963200988</v>
+        <v>346.4706963205505</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2280,10 +2280,10 @@
         <v>107.6476277959926</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>25.70923750768748</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2341,7 +2341,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H23" t="n">
-        <v>346.4706963201042</v>
+        <v>346.4706963200988</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>165.2127885434264</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>404.8896287080119</v>
       </c>
       <c r="G26" t="n">
-        <v>396.495661159869</v>
+        <v>397.8840054528454</v>
       </c>
       <c r="H26" t="n">
         <v>347.8590406130752</v>
@@ -2617,7 +2617,7 @@
         <v>560.964918411981</v>
       </c>
       <c r="U26" t="n">
-        <v>648.751427201877</v>
+        <v>647.3630829093522</v>
       </c>
       <c r="V26" t="n">
         <v>629.8510241668239</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>14.39810218700126</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>150.8146863564251</v>
       </c>
       <c r="V28" t="n">
-        <v>14.39810218700129</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>481.9993129553962</v>
+        <v>481.9993129554035</v>
       </c>
       <c r="C29" t="n">
-        <v>449.4745782428157</v>
+        <v>449.4745782428229</v>
       </c>
       <c r="D29" t="n">
-        <v>410.3391557396715</v>
+        <v>410.3391557396788</v>
       </c>
       <c r="E29" t="n">
-        <v>404.3632896066904</v>
+        <v>404.3632896066977</v>
       </c>
       <c r="F29" t="n">
-        <v>404.8896287078336</v>
+        <v>404.8896287078409</v>
       </c>
       <c r="G29" t="n">
-        <v>397.8840054526671</v>
+        <v>397.8840054526744</v>
       </c>
       <c r="H29" t="n">
-        <v>347.8590406128969</v>
+        <v>347.8590406129042</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2848,25 +2848,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>361.0088210684763</v>
+        <v>361.0088210684835</v>
       </c>
       <c r="T29" t="n">
-        <v>560.9649184118027</v>
+        <v>560.96491841181</v>
       </c>
       <c r="U29" t="n">
-        <v>648.7514272016988</v>
+        <v>648.7514272017061</v>
       </c>
       <c r="V29" t="n">
-        <v>628.4626798770863</v>
+        <v>628.4626798765227</v>
       </c>
       <c r="W29" t="n">
-        <v>638.3734759807693</v>
+        <v>638.3734759807766</v>
       </c>
       <c r="X29" t="n">
-        <v>592.2818334604895</v>
+        <v>592.2818334604967</v>
       </c>
       <c r="Y29" t="n">
-        <v>511.3174326826281</v>
+        <v>511.3174326826354</v>
       </c>
     </row>
     <row r="30">
@@ -2924,10 +2924,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822414711</v>
       </c>
       <c r="S30" t="n">
-        <v>406.6592151024263</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T30" t="n">
         <v>392.6911708778912</v>
@@ -3040,7 +3040,7 @@
         <v>449.4745782429939</v>
       </c>
       <c r="D32" t="n">
-        <v>410.3391557398498</v>
+        <v>408.9508114473251</v>
       </c>
       <c r="E32" t="n">
         <v>404.3632896068686</v>
@@ -3052,7 +3052,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H32" t="n">
-        <v>346.4706963205611</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>397.8840054528454</v>
       </c>
       <c r="H35" t="n">
-        <v>346.4706963205611</v>
+        <v>347.8590406130752</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>629.8510241668239</v>
       </c>
       <c r="W35" t="n">
-        <v>638.3734759809475</v>
+        <v>636.9851316884224</v>
       </c>
       <c r="X35" t="n">
         <v>592.2818334606677</v>
@@ -3398,10 +3398,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S36" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T36" t="n">
         <v>392.6911708778912</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>165.2127885434264</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>14.39810218700129</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C38" t="n">
-        <v>448.0862339504801</v>
+        <v>449.4745782429939</v>
       </c>
       <c r="D38" t="n">
         <v>410.3391557398498</v>
@@ -3520,7 +3520,7 @@
         <v>404.3632896068686</v>
       </c>
       <c r="F38" t="n">
-        <v>404.8896287080119</v>
+        <v>403.5012844154872</v>
       </c>
       <c r="G38" t="n">
         <v>397.8840054528454</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>481.9993129555745</v>
       </c>
       <c r="C41" t="n">
-        <v>449.4745782429939</v>
+        <v>448.0862339500177</v>
       </c>
       <c r="D41" t="n">
         <v>410.3391557398498</v>
       </c>
       <c r="E41" t="n">
-        <v>402.9749453143546</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F41" t="n">
         <v>404.8896287080119</v>
@@ -3872,10 +3872,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>352.1613821980396</v>
+        <v>350.6276822404662</v>
       </c>
       <c r="S42" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T42" t="n">
         <v>392.6911708778912</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>165.2127885434264</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3991,7 +3991,7 @@
         <v>410.3391557398498</v>
       </c>
       <c r="E44" t="n">
-        <v>402.9749453138828</v>
+        <v>404.3632896068686</v>
       </c>
       <c r="F44" t="n">
         <v>404.8896287080119</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>361.0088210686545</v>
+        <v>359.620476775678</v>
       </c>
       <c r="T44" t="n">
         <v>560.964918411981</v>
@@ -4112,7 +4112,7 @@
         <v>352.1613821980396</v>
       </c>
       <c r="S45" t="n">
-        <v>406.6592151013782</v>
+        <v>408.192915058951</v>
       </c>
       <c r="T45" t="n">
         <v>392.6911708778912</v>
@@ -4124,7 +4124,7 @@
         <v>414.5106671915202</v>
       </c>
       <c r="W45" t="n">
-        <v>432.3731429098285</v>
+        <v>430.8394429522557</v>
       </c>
       <c r="X45" t="n">
         <v>419.8627394453875</v>
@@ -4173,10 +4173,10 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>57.56516074743384</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>14.39810218700126</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4312,76 +4312,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C2" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D2" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E2" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F2" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361342871</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H2" t="n">
         <v>140.96</v>
       </c>
       <c r="I2" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J2" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K2" t="n">
-        <v>1339.420289043491</v>
+        <v>2124.71495243113</v>
       </c>
       <c r="L2" t="n">
-        <v>2257.013012360075</v>
+        <v>3797.935015773448</v>
       </c>
       <c r="M2" t="n">
-        <v>2739.192211873577</v>
+        <v>4280.114215286951</v>
       </c>
       <c r="N2" t="n">
-        <v>3304.235275746249</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O2" t="n">
-        <v>5028.734971800485</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P2" t="n">
-        <v>5864.602299897899</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q2" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R2" t="n">
         <v>7048.000000000002</v>
       </c>
       <c r="S2" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T2" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U2" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V2" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W2" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X2" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y2" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="3">
@@ -4391,25 +4391,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2287.112034235904</v>
+        <v>2285.562842359567</v>
       </c>
       <c r="C3" t="n">
-        <v>1922.364647927298</v>
+        <v>1920.815456050962</v>
       </c>
       <c r="D3" t="n">
-        <v>1570.91243893972</v>
+        <v>1569.363247063383</v>
       </c>
       <c r="E3" t="n">
-        <v>1224.779007402434</v>
+        <v>1223.229815526098</v>
       </c>
       <c r="F3" t="n">
-        <v>881.7120959500332</v>
+        <v>880.1629040736968</v>
       </c>
       <c r="G3" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H3" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I3" t="n">
         <v>140.96</v>
@@ -4439,28 +4439,28 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R3" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S3" t="n">
-        <v>5159.222422432123</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T3" t="n">
-        <v>4762.564674070616</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U3" t="n">
-        <v>4358.520619043174</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V3" t="n">
-        <v>3939.822975415375</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W3" t="n">
-        <v>3503.082427021609</v>
+        <v>3501.533235145273</v>
       </c>
       <c r="X3" t="n">
-        <v>3078.978649804046</v>
+        <v>3077.429457927709</v>
       </c>
       <c r="Y3" t="n">
-        <v>2675.553000545324</v>
+        <v>2674.003808668988</v>
       </c>
     </row>
     <row r="4">
@@ -4549,76 +4549,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C5" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D5" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E5" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F5" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G5" t="n">
-        <v>490.9304003233322</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H5" t="n">
         <v>140.96</v>
       </c>
       <c r="I5" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J5" t="n">
-        <v>1025.778834695947</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K5" t="n">
-        <v>1765.421978263786</v>
+        <v>1841.010275303557</v>
       </c>
       <c r="L5" t="n">
-        <v>2683.01470158037</v>
+        <v>2963.709898714192</v>
       </c>
       <c r="M5" t="n">
-        <v>4214.862236188701</v>
+        <v>3445.889098227694</v>
       </c>
       <c r="N5" t="n">
-        <v>4779.905300061373</v>
+        <v>4010.932162100366</v>
       </c>
       <c r="O5" t="n">
-        <v>5690.060183002117</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P5" t="n">
-        <v>6525.92751109953</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q5" t="n">
-        <v>6982.748020901752</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R5" t="n">
         <v>7048.000000000002</v>
       </c>
       <c r="S5" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T5" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U5" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V5" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W5" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X5" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y5" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="6">
@@ -4634,10 +4634,10 @@
         <v>1920.815456050962</v>
       </c>
       <c r="D6" t="n">
-        <v>1569.363247063383</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E6" t="n">
-        <v>1223.229815526098</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F6" t="n">
         <v>881.7120959500332</v>
@@ -4737,13 +4737,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="L7" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M7" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N7" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O7" t="n">
         <v>457.4949902104935</v>
@@ -4807,13 +4807,13 @@
         <v>140.96</v>
       </c>
       <c r="I8" t="n">
-        <v>216.5482970397704</v>
+        <v>140.96</v>
       </c>
       <c r="J8" t="n">
-        <v>675.3654425154225</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K8" t="n">
-        <v>2046.117175397609</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L8" t="n">
         <v>2963.709898714192</v>
@@ -4880,10 +4880,10 @@
         <v>880.1629040736968</v>
       </c>
       <c r="G9" t="n">
-        <v>555.8565327448407</v>
+        <v>554.3073408685043</v>
       </c>
       <c r="H9" t="n">
-        <v>250.9899876546879</v>
+        <v>249.4407957783515</v>
       </c>
       <c r="I9" t="n">
         <v>140.96</v>
@@ -4974,13 +4974,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="L10" t="n">
-        <v>307.8416045893197</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="M10" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="N10" t="n">
-        <v>326.8726278290461</v>
+        <v>457.4949902104935</v>
       </c>
       <c r="O10" t="n">
         <v>457.4949902104935</v>
@@ -5023,16 +5023,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C11" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D11" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E11" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F11" t="n">
         <v>894.2358041069906</v>
@@ -5047,13 +5047,13 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J11" t="n">
-        <v>675.3654425154225</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K11" t="n">
-        <v>1830.673957362036</v>
+        <v>2053.555015773447</v>
       </c>
       <c r="L11" t="n">
-        <v>2748.266680678619</v>
+        <v>3797.935015773448</v>
       </c>
       <c r="M11" t="n">
         <v>4280.114215286951</v>
@@ -5074,25 +5074,25 @@
         <v>7048.000000000002</v>
       </c>
       <c r="S11" t="n">
-        <v>6684.746993155883</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T11" t="n">
-        <v>6118.11576243671</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U11" t="n">
-        <v>5462.811290515621</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V11" t="n">
-        <v>4826.598134791557</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W11" t="n">
-        <v>4181.776441881509</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X11" t="n">
-        <v>3583.51196363841</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y11" t="n">
-        <v>3067.029708403252</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="12">
@@ -5235,10 +5235,10 @@
         <v>307.8416045893197</v>
       </c>
       <c r="T13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U13" t="n">
-        <v>140.96</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V13" t="n">
         <v>140.96</v>
@@ -5260,76 +5260,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2580.161715518833</v>
+        <v>2578.759347546168</v>
       </c>
       <c r="C14" t="n">
-        <v>2126.146990020859</v>
+        <v>2124.744622048194</v>
       </c>
       <c r="D14" t="n">
-        <v>1711.662994324041</v>
+        <v>1710.260626351376</v>
       </c>
       <c r="E14" t="n">
-        <v>1303.215227044376</v>
+        <v>1301.812859071711</v>
       </c>
       <c r="F14" t="n">
-        <v>894.2358041069906</v>
+        <v>892.8334361343254</v>
       </c>
       <c r="G14" t="n">
-        <v>492.3327682960356</v>
+        <v>490.9304003233703</v>
       </c>
       <c r="H14" t="n">
         <v>140.96</v>
       </c>
       <c r="I14" t="n">
-        <v>140.96</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J14" t="n">
-        <v>599.7771454756521</v>
+        <v>675.3654425154225</v>
       </c>
       <c r="K14" t="n">
-        <v>1339.420289043491</v>
+        <v>1415.008586083262</v>
       </c>
       <c r="L14" t="n">
-        <v>2257.013012360075</v>
+        <v>2332.601309399844</v>
       </c>
       <c r="M14" t="n">
-        <v>3788.860546968407</v>
+        <v>3418.242061939605</v>
       </c>
       <c r="N14" t="n">
-        <v>4353.903610841079</v>
+        <v>3983.285125812277</v>
       </c>
       <c r="O14" t="n">
-        <v>5755.312162100367</v>
+        <v>4893.440008753021</v>
       </c>
       <c r="P14" t="n">
-        <v>6591.17949019778</v>
+        <v>6591.179490197817</v>
       </c>
       <c r="Q14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048.000000000039</v>
       </c>
       <c r="R14" t="n">
-        <v>7048.000000000002</v>
+        <v>7048.000000000039</v>
       </c>
       <c r="S14" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183217</v>
       </c>
       <c r="T14" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464044</v>
       </c>
       <c r="U14" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922542956</v>
       </c>
       <c r="V14" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766818892</v>
       </c>
       <c r="W14" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073908843</v>
       </c>
       <c r="X14" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595665745</v>
       </c>
       <c r="Y14" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340430587</v>
       </c>
     </row>
     <row r="15">
@@ -5387,7 +5387,7 @@
         <v>5925.707874249716</v>
       </c>
       <c r="R15" t="n">
-        <v>5571.538498249245</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S15" t="n">
         <v>5159.222422432123</v>
@@ -5497,76 +5497,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2578.759347546288</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C17" t="n">
-        <v>2124.744622048314</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D17" t="n">
-        <v>1710.260626351496</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E17" t="n">
-        <v>1301.812859071831</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F17" t="n">
-        <v>892.8334361344454</v>
+        <v>894.2358041069999</v>
       </c>
       <c r="G17" t="n">
-        <v>490.9304003234904</v>
+        <v>492.3327682960449</v>
       </c>
       <c r="H17" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I17" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397798</v>
       </c>
       <c r="J17" t="n">
-        <v>1101.367131735718</v>
+        <v>675.3654425154318</v>
       </c>
       <c r="K17" t="n">
-        <v>1841.010275303557</v>
+        <v>1415.008586083271</v>
       </c>
       <c r="L17" t="n">
-        <v>2758.60299862014</v>
+        <v>2332.601309399854</v>
       </c>
       <c r="M17" t="n">
-        <v>3240.782198133642</v>
+        <v>2814.780508913357</v>
       </c>
       <c r="N17" t="n">
-        <v>3805.825262006314</v>
+        <v>3379.823572786029</v>
       </c>
       <c r="O17" t="n">
-        <v>4715.980144947059</v>
+        <v>4289.978455726773</v>
       </c>
       <c r="P17" t="n">
-        <v>5981.485937660902</v>
+        <v>5987.717937171569</v>
       </c>
       <c r="Q17" t="n">
         <v>7048.000000000002</v>
       </c>
       <c r="R17" t="n">
-        <v>7048.000000000159</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S17" t="n">
-        <v>6683.344625183337</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T17" t="n">
-        <v>6116.713394464164</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U17" t="n">
-        <v>5461.408922543076</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V17" t="n">
-        <v>4825.195766819012</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W17" t="n">
-        <v>4180.374073908964</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X17" t="n">
-        <v>3582.109595665865</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y17" t="n">
-        <v>3065.627340430707</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="18">
@@ -5576,76 +5576,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235913</v>
       </c>
       <c r="C18" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D18" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939729</v>
       </c>
       <c r="E18" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402444</v>
       </c>
       <c r="F18" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500426</v>
       </c>
       <c r="G18" t="n">
-        <v>555.8565327448407</v>
+        <v>555.85653274485</v>
       </c>
       <c r="H18" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546972</v>
       </c>
       <c r="I18" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J18" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514931</v>
       </c>
       <c r="K18" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213088</v>
       </c>
       <c r="L18" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M18" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N18" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.06020421532</v>
       </c>
       <c r="O18" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182058</v>
       </c>
       <c r="P18" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368545</v>
       </c>
       <c r="Q18" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249725</v>
       </c>
       <c r="R18" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372918</v>
       </c>
       <c r="S18" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432132</v>
       </c>
       <c r="T18" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070625</v>
       </c>
       <c r="U18" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043183</v>
       </c>
       <c r="V18" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W18" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X18" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804055</v>
       </c>
       <c r="Y18" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="19">
@@ -5655,76 +5655,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="C19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="D19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="E19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="F19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="G19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="H19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J19" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967229</v>
       </c>
       <c r="K19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="L19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="M19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="N19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="O19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="P19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="Q19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="R19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="S19" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="T19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="U19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="V19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="W19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="X19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Y19" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
     </row>
     <row r="20">
@@ -5734,40 +5734,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2578.75934754613</v>
+        <v>2578.759347546596</v>
       </c>
       <c r="C20" t="n">
-        <v>2124.744622048156</v>
+        <v>2124.744622048622</v>
       </c>
       <c r="D20" t="n">
-        <v>1710.260626351338</v>
+        <v>1710.260626351804</v>
       </c>
       <c r="E20" t="n">
-        <v>1301.812859071673</v>
+        <v>1301.812859072139</v>
       </c>
       <c r="F20" t="n">
-        <v>892.8334361342871</v>
+        <v>892.8334361347529</v>
       </c>
       <c r="G20" t="n">
-        <v>490.9304003233322</v>
+        <v>490.9304003237978</v>
       </c>
       <c r="H20" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I20" t="n">
-        <v>216.5482970397704</v>
+        <v>216.5482970397798</v>
       </c>
       <c r="J20" t="n">
-        <v>1091.030813794197</v>
+        <v>1055.002360625126</v>
       </c>
       <c r="K20" t="n">
-        <v>1830.673957362036</v>
+        <v>1794.645504192965</v>
       </c>
       <c r="L20" t="n">
-        <v>2748.266680678619</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M20" t="n">
-        <v>4280.114215286951</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N20" t="n">
         <v>4845.157279159623</v>
@@ -5782,28 +5782,28 @@
         <v>7048.000000000002</v>
       </c>
       <c r="R20" t="n">
-        <v>7048.000000000002</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="S20" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183645</v>
       </c>
       <c r="T20" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464472</v>
       </c>
       <c r="U20" t="n">
-        <v>5461.408922542918</v>
+        <v>5461.408922543384</v>
       </c>
       <c r="V20" t="n">
-        <v>4825.195766818853</v>
+        <v>4825.195766819319</v>
       </c>
       <c r="W20" t="n">
-        <v>4180.374073908805</v>
+        <v>4180.374073909271</v>
       </c>
       <c r="X20" t="n">
-        <v>3582.109595665706</v>
+        <v>3582.109595666172</v>
       </c>
       <c r="Y20" t="n">
-        <v>3065.627340430548</v>
+        <v>3065.627340431014</v>
       </c>
     </row>
     <row r="21">
@@ -5813,76 +5813,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235913</v>
       </c>
       <c r="C21" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D21" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939729</v>
       </c>
       <c r="E21" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402444</v>
       </c>
       <c r="F21" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500426</v>
       </c>
       <c r="G21" t="n">
-        <v>555.8565327448407</v>
+        <v>555.85653274485</v>
       </c>
       <c r="H21" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546972</v>
       </c>
       <c r="I21" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J21" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514931</v>
       </c>
       <c r="K21" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213088</v>
       </c>
       <c r="L21" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M21" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N21" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.06020421532</v>
       </c>
       <c r="O21" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182058</v>
       </c>
       <c r="P21" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368545</v>
       </c>
       <c r="Q21" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249725</v>
       </c>
       <c r="R21" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372918</v>
       </c>
       <c r="S21" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432132</v>
       </c>
       <c r="T21" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070625</v>
       </c>
       <c r="U21" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043183</v>
       </c>
       <c r="V21" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W21" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X21" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804055</v>
       </c>
       <c r="Y21" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="22">
@@ -5892,76 +5892,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="C22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="D22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="E22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="F22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="G22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="H22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J22" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967229</v>
       </c>
       <c r="K22" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="L22" t="n">
-        <v>275.6639043471516</v>
+        <v>275.663904347161</v>
       </c>
       <c r="M22" t="n">
-        <v>166.9289267754419</v>
+        <v>166.9289267754513</v>
       </c>
       <c r="N22" t="n">
-        <v>140.96</v>
+        <v>166.9289267754513</v>
       </c>
       <c r="O22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="P22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Q22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="R22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="S22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="T22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="U22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="V22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="W22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="X22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Y22" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
     </row>
     <row r="23">
@@ -5971,22 +5971,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2578.759347546135</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C23" t="n">
-        <v>2124.744622048162</v>
+        <v>2124.744622048156</v>
       </c>
       <c r="D23" t="n">
-        <v>1710.260626351343</v>
+        <v>1710.260626351338</v>
       </c>
       <c r="E23" t="n">
-        <v>1301.812859071678</v>
+        <v>1301.812859071673</v>
       </c>
       <c r="F23" t="n">
-        <v>892.8334361342926</v>
+        <v>892.8334361342872</v>
       </c>
       <c r="G23" t="n">
-        <v>490.9304003233376</v>
+        <v>490.9304003233322</v>
       </c>
       <c r="H23" t="n">
         <v>140.96</v>
@@ -5995,52 +5995,52 @@
         <v>216.5482970397704</v>
       </c>
       <c r="J23" t="n">
-        <v>1101.367131735718</v>
+        <v>1055.002360625126</v>
       </c>
       <c r="K23" t="n">
-        <v>1841.010275303557</v>
+        <v>1794.645504192965</v>
       </c>
       <c r="L23" t="n">
-        <v>2758.60299862014</v>
+        <v>2712.238227509548</v>
       </c>
       <c r="M23" t="n">
-        <v>3240.782198133642</v>
+        <v>3194.417427023051</v>
       </c>
       <c r="N23" t="n">
-        <v>4118.580088859746</v>
+        <v>4845.157279159623</v>
       </c>
       <c r="O23" t="n">
-        <v>5028.73497180049</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P23" t="n">
-        <v>5864.602299897903</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q23" t="n">
-        <v>6931.116362237003</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R23" t="n">
-        <v>7048.000000000006</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S23" t="n">
-        <v>6683.344625183184</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T23" t="n">
-        <v>6116.713394464011</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U23" t="n">
-        <v>5461.408922542923</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V23" t="n">
-        <v>4825.195766818859</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W23" t="n">
-        <v>4180.374073908811</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X23" t="n">
-        <v>3582.109595665712</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y23" t="n">
-        <v>3065.627340430554</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="24">
@@ -6183,13 +6183,13 @@
         <v>307.8416045893197</v>
       </c>
       <c r="T25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="U25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="V25" t="n">
-        <v>307.8416045893197</v>
+        <v>140.96</v>
       </c>
       <c r="W25" t="n">
         <v>140.96</v>
@@ -6208,76 +6208,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518843</v>
       </c>
       <c r="C26" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020869</v>
       </c>
       <c r="D26" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324051</v>
       </c>
       <c r="E26" t="n">
-        <v>1301.812859071673</v>
+        <v>1303.215227044386</v>
       </c>
       <c r="F26" t="n">
-        <v>892.8334361342871</v>
+        <v>894.2358041069999</v>
       </c>
       <c r="G26" t="n">
-        <v>492.3327682960356</v>
+        <v>492.3327682960449</v>
       </c>
       <c r="H26" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I26" t="n">
-        <v>216.5482970397704</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J26" t="n">
-        <v>675.3654425154225</v>
+        <v>1025.778834695956</v>
       </c>
       <c r="K26" t="n">
-        <v>1713.790319599033</v>
+        <v>1765.421978263796</v>
       </c>
       <c r="L26" t="n">
-        <v>2631.383042915616</v>
+        <v>2683.014701580379</v>
       </c>
       <c r="M26" t="n">
-        <v>4163.230577523947</v>
+        <v>4214.86223618871</v>
       </c>
       <c r="N26" t="n">
-        <v>4728.273641396619</v>
+        <v>4779.905300061382</v>
       </c>
       <c r="O26" t="n">
-        <v>5638.428524337363</v>
+        <v>5755.312162100832</v>
       </c>
       <c r="P26" t="n">
-        <v>6474.295852434777</v>
+        <v>6591.179490198246</v>
       </c>
       <c r="Q26" t="n">
-        <v>6931.116362236999</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="R26" t="n">
-        <v>7048.000000000002</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="S26" t="n">
-        <v>6683.344625183179</v>
+        <v>6683.344625183645</v>
       </c>
       <c r="T26" t="n">
-        <v>6116.713394464006</v>
+        <v>6116.713394464472</v>
       </c>
       <c r="U26" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515631</v>
       </c>
       <c r="V26" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791567</v>
       </c>
       <c r="W26" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881519</v>
       </c>
       <c r="X26" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363842</v>
       </c>
       <c r="Y26" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403262</v>
       </c>
     </row>
     <row r="27">
@@ -6287,76 +6287,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2287.112034235904</v>
+        <v>2287.112034235913</v>
       </c>
       <c r="C27" t="n">
-        <v>1922.364647927298</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D27" t="n">
-        <v>1570.91243893972</v>
+        <v>1570.912438939729</v>
       </c>
       <c r="E27" t="n">
-        <v>1224.779007402434</v>
+        <v>1224.779007402444</v>
       </c>
       <c r="F27" t="n">
-        <v>881.7120959500332</v>
+        <v>881.7120959500426</v>
       </c>
       <c r="G27" t="n">
-        <v>555.8565327448407</v>
+        <v>555.85653274485</v>
       </c>
       <c r="H27" t="n">
-        <v>250.9899876546879</v>
+        <v>250.9899876546972</v>
       </c>
       <c r="I27" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J27" t="n">
-        <v>558.8475295149217</v>
+        <v>558.847529514931</v>
       </c>
       <c r="K27" t="n">
-        <v>1250.415257213079</v>
+        <v>1250.415257213088</v>
       </c>
       <c r="L27" t="n">
-        <v>2197.270784374317</v>
+        <v>2197.270784374326</v>
       </c>
       <c r="M27" t="n">
-        <v>3071.633876117176</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N27" t="n">
-        <v>4014.06020421531</v>
+        <v>4014.06020421532</v>
       </c>
       <c r="O27" t="n">
-        <v>4993.313206182049</v>
+        <v>4993.313206182058</v>
       </c>
       <c r="P27" t="n">
-        <v>5699.926775368536</v>
+        <v>5699.926775368545</v>
       </c>
       <c r="Q27" t="n">
-        <v>5925.707874249716</v>
+        <v>5925.707874249725</v>
       </c>
       <c r="R27" t="n">
-        <v>5569.989306372909</v>
+        <v>5569.989306372918</v>
       </c>
       <c r="S27" t="n">
-        <v>5159.222422432123</v>
+        <v>5159.222422432132</v>
       </c>
       <c r="T27" t="n">
-        <v>4762.564674070616</v>
+        <v>4762.564674070625</v>
       </c>
       <c r="U27" t="n">
-        <v>4358.520619043174</v>
+        <v>4358.520619043183</v>
       </c>
       <c r="V27" t="n">
-        <v>3939.822975415375</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W27" t="n">
-        <v>3503.082427021609</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X27" t="n">
-        <v>3078.978649804046</v>
+        <v>3078.978649804055</v>
       </c>
       <c r="Y27" t="n">
-        <v>2675.553000545324</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="28">
@@ -6366,76 +6366,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="C28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="D28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="E28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="F28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="G28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="H28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J28" t="n">
-        <v>290.4466099967136</v>
+        <v>290.4466099967229</v>
       </c>
       <c r="K28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="L28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="M28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="N28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="O28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="P28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="Q28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="R28" t="n">
-        <v>307.8416045893197</v>
+        <v>307.841604589329</v>
       </c>
       <c r="S28" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670267015</v>
       </c>
       <c r="T28" t="n">
-        <v>307.8416045893197</v>
+        <v>293.2980670267015</v>
       </c>
       <c r="U28" t="n">
-        <v>155.5035375626276</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="V28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="W28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="X28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.96</v>
+        <v>140.9600000000094</v>
       </c>
     </row>
     <row r="29">
@@ -6445,76 +6445,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2580.161715517772</v>
+        <v>2580.161715517806</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.146990019978</v>
+        <v>2126.146990020005</v>
       </c>
       <c r="D29" t="n">
-        <v>1711.66299432334</v>
+        <v>1711.66299432336</v>
       </c>
       <c r="E29" t="n">
-        <v>1303.215227043855</v>
+        <v>1303.215227043867</v>
       </c>
       <c r="F29" t="n">
-        <v>894.2358041066494</v>
+        <v>894.2358041066544</v>
       </c>
       <c r="G29" t="n">
-        <v>492.3327682958745</v>
+        <v>492.3327682958722</v>
       </c>
       <c r="H29" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I29" t="n">
-        <v>216.5482970397894</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J29" t="n">
-        <v>675.3654425154416</v>
+        <v>599.7771454756614</v>
       </c>
       <c r="K29" t="n">
-        <v>1415.008586083281</v>
+        <v>2049.126655391369</v>
       </c>
       <c r="L29" t="n">
-        <v>2332.601309399864</v>
+        <v>2966.719378707953</v>
       </c>
       <c r="M29" t="n">
-        <v>2814.780508913366</v>
+        <v>4163.230577524413</v>
       </c>
       <c r="N29" t="n">
-        <v>3379.823572786038</v>
+        <v>4728.273641397085</v>
       </c>
       <c r="O29" t="n">
-        <v>4289.978455726782</v>
+        <v>5638.428524337829</v>
       </c>
       <c r="P29" t="n">
-        <v>5987.717937171578</v>
+        <v>6474.295852435243</v>
       </c>
       <c r="Q29" t="n">
-        <v>7048.000000000951</v>
+        <v>6931.116362237464</v>
       </c>
       <c r="R29" t="n">
-        <v>7048.000000000951</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="S29" t="n">
-        <v>6683.344625184309</v>
+        <v>6683.344625183818</v>
       </c>
       <c r="T29" t="n">
-        <v>6116.713394465316</v>
+        <v>6116.713394464818</v>
       </c>
       <c r="U29" t="n">
-        <v>5461.408922544408</v>
+        <v>5461.408922543902</v>
       </c>
       <c r="V29" t="n">
-        <v>4826.598134789775</v>
+        <v>4826.598134789839</v>
       </c>
       <c r="W29" t="n">
-        <v>4181.776441879907</v>
+        <v>4181.776441879963</v>
       </c>
       <c r="X29" t="n">
-        <v>3583.511963636988</v>
+        <v>3583.511963637038</v>
       </c>
       <c r="Y29" t="n">
-        <v>3067.02970840201</v>
+        <v>3067.029708402053</v>
       </c>
     </row>
     <row r="30">
@@ -6524,76 +6524,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2287.112034235922</v>
+        <v>2287.112034235913</v>
       </c>
       <c r="C30" t="n">
-        <v>1922.364647927317</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D30" t="n">
-        <v>1570.912438939739</v>
+        <v>1570.912438939729</v>
       </c>
       <c r="E30" t="n">
-        <v>1224.779007402453</v>
+        <v>1224.779007402444</v>
       </c>
       <c r="F30" t="n">
-        <v>881.7120959500521</v>
+        <v>881.7120959500426</v>
       </c>
       <c r="G30" t="n">
-        <v>555.8565327448597</v>
+        <v>555.85653274485</v>
       </c>
       <c r="H30" t="n">
-        <v>250.9899876547069</v>
+        <v>250.9899876546972</v>
       </c>
       <c r="I30" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J30" t="n">
-        <v>558.8475295151172</v>
+        <v>558.8475295151003</v>
       </c>
       <c r="K30" t="n">
-        <v>1250.415257213451</v>
+        <v>1250.415257213427</v>
       </c>
       <c r="L30" t="n">
-        <v>2197.270784374865</v>
+        <v>2197.270784374665</v>
       </c>
       <c r="M30" t="n">
-        <v>3071.633876117901</v>
+        <v>3071.633876117693</v>
       </c>
       <c r="N30" t="n">
-        <v>4014.060204216035</v>
+        <v>4014.060204215997</v>
       </c>
       <c r="O30" t="n">
-        <v>4993.313206182773</v>
+        <v>4993.313206182904</v>
       </c>
       <c r="P30" t="n">
-        <v>5699.926775369437</v>
+        <v>5699.92677536956</v>
       </c>
       <c r="Q30" t="n">
-        <v>5925.707874250793</v>
+        <v>5925.70787425074</v>
       </c>
       <c r="R30" t="n">
-        <v>5569.989306373986</v>
+        <v>5571.538498249254</v>
       </c>
       <c r="S30" t="n">
-        <v>5159.222422432141</v>
+        <v>5159.222422432132</v>
       </c>
       <c r="T30" t="n">
-        <v>4762.564674070634</v>
+        <v>4762.564674070625</v>
       </c>
       <c r="U30" t="n">
-        <v>4358.520619043192</v>
+        <v>4358.520619043183</v>
       </c>
       <c r="V30" t="n">
-        <v>3939.822975415394</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W30" t="n">
-        <v>3503.082427021628</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X30" t="n">
-        <v>3078.978649804064</v>
+        <v>3078.978649804055</v>
       </c>
       <c r="Y30" t="n">
-        <v>2675.553000545343</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="31">
@@ -6603,76 +6603,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="C31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="D31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="E31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="F31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="G31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="H31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J31" t="n">
-        <v>290.4466099967326</v>
+        <v>290.4466099967229</v>
       </c>
       <c r="K31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="L31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="M31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="N31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="O31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="P31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="Q31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="R31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="S31" t="n">
-        <v>307.8416045893387</v>
+        <v>307.841604589329</v>
       </c>
       <c r="T31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="U31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="V31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="W31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="X31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Y31" t="n">
-        <v>140.960000000019</v>
+        <v>140.9600000000094</v>
       </c>
     </row>
     <row r="32">
@@ -6682,76 +6682,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2578.759347546606</v>
+        <v>2578.759347546596</v>
       </c>
       <c r="C32" t="n">
-        <v>2124.744622048633</v>
+        <v>2124.744622048622</v>
       </c>
       <c r="D32" t="n">
-        <v>1710.260626351815</v>
+        <v>1711.662994324051</v>
       </c>
       <c r="E32" t="n">
-        <v>1301.812859072149</v>
+        <v>1303.215227044386</v>
       </c>
       <c r="F32" t="n">
-        <v>892.8334361347637</v>
+        <v>894.2358041069999</v>
       </c>
       <c r="G32" t="n">
-        <v>490.9304003238087</v>
+        <v>492.3327682960449</v>
       </c>
       <c r="H32" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I32" t="n">
-        <v>216.54829703978</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J32" t="n">
-        <v>675.3654425154321</v>
+        <v>599.7771454756614</v>
       </c>
       <c r="K32" t="n">
-        <v>1713.790319599509</v>
+        <v>1339.420289043501</v>
       </c>
       <c r="L32" t="n">
-        <v>2631.383042916092</v>
+        <v>2257.013012360083</v>
       </c>
       <c r="M32" t="n">
-        <v>4163.230577524424</v>
+        <v>2739.192211873587</v>
       </c>
       <c r="N32" t="n">
-        <v>4728.273641397096</v>
+        <v>4389.932064010159</v>
       </c>
       <c r="O32" t="n">
-        <v>5638.42852433784</v>
+        <v>5300.086946950903</v>
       </c>
       <c r="P32" t="n">
-        <v>6474.295852435253</v>
+        <v>6591.179490198246</v>
       </c>
       <c r="Q32" t="n">
-        <v>6931.116362237475</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="R32" t="n">
-        <v>7048.000000000478</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="S32" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183645</v>
       </c>
       <c r="T32" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464472</v>
       </c>
       <c r="U32" t="n">
-        <v>5461.408922543395</v>
+        <v>5461.408922543384</v>
       </c>
       <c r="V32" t="n">
-        <v>4825.19576681933</v>
+        <v>4825.195766819319</v>
       </c>
       <c r="W32" t="n">
-        <v>4180.374073909282</v>
+        <v>4180.374073909271</v>
       </c>
       <c r="X32" t="n">
-        <v>3582.109595666183</v>
+        <v>3582.109595666172</v>
       </c>
       <c r="Y32" t="n">
-        <v>3065.627340431025</v>
+        <v>3065.627340431014</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>2287.112034235913</v>
       </c>
       <c r="C33" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D33" t="n">
         <v>1570.912438939729</v>
@@ -6773,19 +6773,19 @@
         <v>1224.779007402444</v>
       </c>
       <c r="F33" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500426</v>
       </c>
       <c r="G33" t="n">
-        <v>555.8565327448503</v>
+        <v>555.85653274485</v>
       </c>
       <c r="H33" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546972</v>
       </c>
       <c r="I33" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J33" t="n">
-        <v>558.8475295149312</v>
+        <v>558.847529514931</v>
       </c>
       <c r="K33" t="n">
         <v>1250.415257213088</v>
@@ -6794,7 +6794,7 @@
         <v>2197.270784374326</v>
       </c>
       <c r="M33" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N33" t="n">
         <v>4014.06020421532</v>
@@ -6821,16 +6821,16 @@
         <v>4358.520619043183</v>
       </c>
       <c r="V33" t="n">
-        <v>3939.822975415385</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W33" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X33" t="n">
         <v>3078.978649804055</v>
       </c>
       <c r="Y33" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="34">
@@ -6840,76 +6840,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="C34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="D34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="E34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="F34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="G34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="H34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J34" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967229</v>
       </c>
       <c r="K34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="L34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="M34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="N34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="O34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="P34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="Q34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="R34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="S34" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="T34" t="n">
-        <v>140.9600000000096</v>
+        <v>307.841604589329</v>
       </c>
       <c r="U34" t="n">
-        <v>140.9600000000096</v>
+        <v>307.841604589329</v>
       </c>
       <c r="V34" t="n">
-        <v>140.9600000000096</v>
+        <v>307.841604589329</v>
       </c>
       <c r="W34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="X34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Y34" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
     </row>
     <row r="35">
@@ -6919,76 +6919,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2578.759347546606</v>
+        <v>2580.161715518843</v>
       </c>
       <c r="C35" t="n">
-        <v>2124.744622048633</v>
+        <v>2126.146990020869</v>
       </c>
       <c r="D35" t="n">
-        <v>1710.260626351815</v>
+        <v>1711.662994324051</v>
       </c>
       <c r="E35" t="n">
-        <v>1301.812859072149</v>
+        <v>1303.215227044386</v>
       </c>
       <c r="F35" t="n">
-        <v>892.8334361347637</v>
+        <v>894.2358041069999</v>
       </c>
       <c r="G35" t="n">
-        <v>490.9304003238087</v>
+        <v>492.3327682960449</v>
       </c>
       <c r="H35" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I35" t="n">
-        <v>216.54829703978</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J35" t="n">
-        <v>675.3654425154321</v>
+        <v>1025.778834695956</v>
       </c>
       <c r="K35" t="n">
-        <v>1415.008586083271</v>
+        <v>1765.421978263796</v>
       </c>
       <c r="L35" t="n">
-        <v>2332.601309399854</v>
+        <v>2683.014701580379</v>
       </c>
       <c r="M35" t="n">
-        <v>3864.448844008186</v>
+        <v>3165.193901093881</v>
       </c>
       <c r="N35" t="n">
-        <v>4429.491907880859</v>
+        <v>3983.285125812706</v>
       </c>
       <c r="O35" t="n">
-        <v>5339.646790821603</v>
+        <v>4893.44000875345</v>
       </c>
       <c r="P35" t="n">
-        <v>6175.514118919016</v>
+        <v>6591.179490198246</v>
       </c>
       <c r="Q35" t="n">
-        <v>7048.000000000478</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="R35" t="n">
-        <v>7048.000000000478</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="S35" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183645</v>
       </c>
       <c r="T35" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464472</v>
       </c>
       <c r="U35" t="n">
-        <v>5461.408922543395</v>
+        <v>5461.408922543384</v>
       </c>
       <c r="V35" t="n">
-        <v>4825.19576681933</v>
+        <v>4825.195766819319</v>
       </c>
       <c r="W35" t="n">
-        <v>4180.374073909282</v>
+        <v>4181.776441881519</v>
       </c>
       <c r="X35" t="n">
-        <v>3582.109595666183</v>
+        <v>3583.51196363842</v>
       </c>
       <c r="Y35" t="n">
-        <v>3065.627340431025</v>
+        <v>3067.029708403262</v>
       </c>
     </row>
     <row r="36">
@@ -7001,7 +7001,7 @@
         <v>2287.112034235913</v>
       </c>
       <c r="C36" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D36" t="n">
         <v>1570.912438939729</v>
@@ -7010,19 +7010,19 @@
         <v>1224.779007402444</v>
       </c>
       <c r="F36" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500426</v>
       </c>
       <c r="G36" t="n">
-        <v>555.8565327448503</v>
+        <v>555.85653274485</v>
       </c>
       <c r="H36" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546972</v>
       </c>
       <c r="I36" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J36" t="n">
-        <v>558.8475295149312</v>
+        <v>558.847529514931</v>
       </c>
       <c r="K36" t="n">
         <v>1250.415257213088</v>
@@ -7031,7 +7031,7 @@
         <v>2197.270784374326</v>
       </c>
       <c r="M36" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N36" t="n">
         <v>4014.06020421532</v>
@@ -7046,7 +7046,7 @@
         <v>5925.707874249725</v>
       </c>
       <c r="R36" t="n">
-        <v>5569.989306372918</v>
+        <v>5571.538498249254</v>
       </c>
       <c r="S36" t="n">
         <v>5159.222422432132</v>
@@ -7058,16 +7058,16 @@
         <v>4358.520619043183</v>
       </c>
       <c r="V36" t="n">
-        <v>3939.822975415385</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W36" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X36" t="n">
         <v>3078.978649804055</v>
       </c>
       <c r="Y36" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="37">
@@ -7077,76 +7077,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="C37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="D37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="E37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="F37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="G37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="H37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J37" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967229</v>
       </c>
       <c r="K37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="L37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="M37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="N37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="O37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="P37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="Q37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="R37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="S37" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="T37" t="n">
-        <v>140.9600000000096</v>
+        <v>307.841604589329</v>
       </c>
       <c r="U37" t="n">
-        <v>140.9600000000096</v>
+        <v>155.5035375626369</v>
       </c>
       <c r="V37" t="n">
-        <v>140.9600000000096</v>
+        <v>155.5035375626369</v>
       </c>
       <c r="W37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="X37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
     </row>
     <row r="38">
@@ -7156,76 +7156,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2578.759347546606</v>
+        <v>2578.759347546596</v>
       </c>
       <c r="C38" t="n">
-        <v>2126.146990020869</v>
+        <v>2124.744622048622</v>
       </c>
       <c r="D38" t="n">
-        <v>1711.662994324051</v>
+        <v>1710.260626351804</v>
       </c>
       <c r="E38" t="n">
-        <v>1303.215227044386</v>
+        <v>1301.812859072139</v>
       </c>
       <c r="F38" t="n">
-        <v>894.2358041070001</v>
+        <v>894.2358041069999</v>
       </c>
       <c r="G38" t="n">
-        <v>492.3327682960452</v>
+        <v>492.3327682960449</v>
       </c>
       <c r="H38" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I38" t="n">
-        <v>140.9600000000096</v>
+        <v>216.5482970397798</v>
       </c>
       <c r="J38" t="n">
-        <v>599.7771454756617</v>
+        <v>675.3654425154318</v>
       </c>
       <c r="K38" t="n">
-        <v>1339.420289043501</v>
+        <v>1415.008586083271</v>
       </c>
       <c r="L38" t="n">
-        <v>2257.013012360083</v>
+        <v>2354.016346177664</v>
       </c>
       <c r="M38" t="n">
-        <v>3553.537024987546</v>
+        <v>2836.195545691166</v>
       </c>
       <c r="N38" t="n">
-        <v>4118.580088860218</v>
+        <v>3401.238609563839</v>
       </c>
       <c r="O38" t="n">
-        <v>5028.734971800962</v>
+        <v>5145.618609563954</v>
       </c>
       <c r="P38" t="n">
-        <v>5864.602299898375</v>
+        <v>5981.485937661368</v>
       </c>
       <c r="Q38" t="n">
-        <v>6931.116362237475</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="R38" t="n">
-        <v>7048.000000000478</v>
+        <v>7048.000000000467</v>
       </c>
       <c r="S38" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183645</v>
       </c>
       <c r="T38" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464472</v>
       </c>
       <c r="U38" t="n">
-        <v>5461.408922543395</v>
+        <v>5461.408922543384</v>
       </c>
       <c r="V38" t="n">
-        <v>4825.19576681933</v>
+        <v>4825.195766819319</v>
       </c>
       <c r="W38" t="n">
-        <v>4180.374073909282</v>
+        <v>4180.374073909271</v>
       </c>
       <c r="X38" t="n">
-        <v>3582.109595666183</v>
+        <v>3582.109595666172</v>
       </c>
       <c r="Y38" t="n">
-        <v>3065.627340431025</v>
+        <v>3065.627340431014</v>
       </c>
     </row>
     <row r="39">
@@ -7238,7 +7238,7 @@
         <v>2287.112034235913</v>
       </c>
       <c r="C39" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927307</v>
       </c>
       <c r="D39" t="n">
         <v>1570.912438939729</v>
@@ -7247,19 +7247,19 @@
         <v>1224.779007402444</v>
       </c>
       <c r="F39" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500426</v>
       </c>
       <c r="G39" t="n">
-        <v>555.8565327448503</v>
+        <v>555.85653274485</v>
       </c>
       <c r="H39" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546972</v>
       </c>
       <c r="I39" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J39" t="n">
-        <v>558.8475295149312</v>
+        <v>558.847529514931</v>
       </c>
       <c r="K39" t="n">
         <v>1250.415257213088</v>
@@ -7268,7 +7268,7 @@
         <v>2197.270784374326</v>
       </c>
       <c r="M39" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117185</v>
       </c>
       <c r="N39" t="n">
         <v>4014.06020421532</v>
@@ -7295,16 +7295,16 @@
         <v>4358.520619043183</v>
       </c>
       <c r="V39" t="n">
-        <v>3939.822975415385</v>
+        <v>3939.822975415384</v>
       </c>
       <c r="W39" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021618</v>
       </c>
       <c r="X39" t="n">
         <v>3078.978649804055</v>
       </c>
       <c r="Y39" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545333</v>
       </c>
     </row>
     <row r="40">
@@ -7314,76 +7314,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="C40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="D40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="E40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="F40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="G40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="H40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="I40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="J40" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967229</v>
       </c>
       <c r="K40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="L40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="M40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="N40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="O40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="P40" t="n">
-        <v>307.8416045893292</v>
+        <v>307.841604589329</v>
       </c>
       <c r="Q40" t="n">
-        <v>140.9600000000096</v>
+        <v>307.841604589329</v>
       </c>
       <c r="R40" t="n">
-        <v>140.9600000000096</v>
+        <v>307.841604589329</v>
       </c>
       <c r="S40" t="n">
-        <v>140.9600000000096</v>
+        <v>307.841604589329</v>
       </c>
       <c r="T40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="U40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="V40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="W40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="X40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
       <c r="Y40" t="n">
-        <v>140.9600000000096</v>
+        <v>140.9600000000094</v>
       </c>
     </row>
     <row r="41">
@@ -7393,76 +7393,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2578.759347546606</v>
+        <v>2578.75934754613</v>
       </c>
       <c r="C41" t="n">
-        <v>2124.744622048633</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D41" t="n">
-        <v>1710.260626351815</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E41" t="n">
-        <v>1303.215227044386</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F41" t="n">
-        <v>894.2358041070001</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G41" t="n">
-        <v>492.3327682960452</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H41" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I41" t="n">
-        <v>140.9600000000096</v>
+        <v>216.5482970397704</v>
       </c>
       <c r="J41" t="n">
-        <v>1025.778834695957</v>
+        <v>1101.367131735718</v>
       </c>
       <c r="K41" t="n">
-        <v>2270.648739920463</v>
+        <v>2550.716641651425</v>
       </c>
       <c r="L41" t="n">
-        <v>3188.241463237046</v>
+        <v>3468.309364968008</v>
       </c>
       <c r="M41" t="n">
-        <v>3670.420662750549</v>
+        <v>3950.48856448151</v>
       </c>
       <c r="N41" t="n">
-        <v>4235.463726623221</v>
+        <v>4515.531628354182</v>
       </c>
       <c r="O41" t="n">
-        <v>5145.618609563965</v>
+        <v>5755.312162100367</v>
       </c>
       <c r="P41" t="n">
-        <v>5981.485937661379</v>
+        <v>6591.17949019778</v>
       </c>
       <c r="Q41" t="n">
-        <v>7048.000000000478</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="R41" t="n">
-        <v>7048.000000000478</v>
+        <v>7048.000000000002</v>
       </c>
       <c r="S41" t="n">
-        <v>6683.344625183656</v>
+        <v>6683.344625183179</v>
       </c>
       <c r="T41" t="n">
-        <v>6116.713394464483</v>
+        <v>6116.713394464006</v>
       </c>
       <c r="U41" t="n">
-        <v>5461.408922543395</v>
+        <v>5461.408922542918</v>
       </c>
       <c r="V41" t="n">
-        <v>4825.19576681933</v>
+        <v>4825.195766818853</v>
       </c>
       <c r="W41" t="n">
-        <v>4180.374073909282</v>
+        <v>4180.374073908805</v>
       </c>
       <c r="X41" t="n">
-        <v>3582.109595666183</v>
+        <v>3582.109595665706</v>
       </c>
       <c r="Y41" t="n">
-        <v>3065.627340431025</v>
+        <v>3065.627340430548</v>
       </c>
     </row>
     <row r="42">
@@ -7472,76 +7472,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C42" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D42" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E42" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F42" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G42" t="n">
-        <v>555.8565327448503</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H42" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I42" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J42" t="n">
-        <v>558.8475295149312</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K42" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L42" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M42" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N42" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O42" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P42" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q42" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R42" t="n">
-        <v>5569.989306372918</v>
+        <v>5571.538498249245</v>
       </c>
       <c r="S42" t="n">
-        <v>5159.222422432132</v>
+        <v>5159.222422432123</v>
       </c>
       <c r="T42" t="n">
-        <v>4762.564674070625</v>
+        <v>4762.564674070616</v>
       </c>
       <c r="U42" t="n">
-        <v>4358.520619043183</v>
+        <v>4358.520619043174</v>
       </c>
       <c r="V42" t="n">
-        <v>3939.822975415385</v>
+        <v>3939.822975415375</v>
       </c>
       <c r="W42" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X42" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y42" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="43">
@@ -7551,76 +7551,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="C43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="D43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="E43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="F43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="G43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="H43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J43" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="N43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="O43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="P43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="Q43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="R43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="S43" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="T43" t="n">
-        <v>140.9600000000096</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="U43" t="n">
-        <v>140.9600000000096</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="V43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="W43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="X43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="Y43" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
     </row>
     <row r="44">
@@ -7630,43 +7630,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2578.75934754613</v>
+        <v>2580.161715518833</v>
       </c>
       <c r="C44" t="n">
-        <v>2124.744622048156</v>
+        <v>2126.146990020859</v>
       </c>
       <c r="D44" t="n">
-        <v>1710.260626351338</v>
+        <v>1711.662994324041</v>
       </c>
       <c r="E44" t="n">
-        <v>1303.215227044386</v>
+        <v>1303.215227044376</v>
       </c>
       <c r="F44" t="n">
-        <v>894.2358041070001</v>
+        <v>894.2358041069906</v>
       </c>
       <c r="G44" t="n">
-        <v>492.3327682960452</v>
+        <v>492.3327682960356</v>
       </c>
       <c r="H44" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I44" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J44" t="n">
-        <v>599.7771454756617</v>
+        <v>599.7771454756521</v>
       </c>
       <c r="K44" t="n">
-        <v>2046.117175397609</v>
+        <v>1339.420289043491</v>
       </c>
       <c r="L44" t="n">
-        <v>2963.709898714192</v>
+        <v>2257.013012360075</v>
       </c>
       <c r="M44" t="n">
-        <v>3445.889098227694</v>
+        <v>3788.860546968407</v>
       </c>
       <c r="N44" t="n">
-        <v>4010.932162100366</v>
+        <v>4353.903610841079</v>
       </c>
       <c r="O44" t="n">
         <v>5755.312162100367</v>
@@ -7681,25 +7681,25 @@
         <v>7048.000000000002</v>
       </c>
       <c r="S44" t="n">
-        <v>6683.344625183179</v>
+        <v>6684.746993155883</v>
       </c>
       <c r="T44" t="n">
-        <v>6116.713394464006</v>
+        <v>6118.11576243671</v>
       </c>
       <c r="U44" t="n">
-        <v>5461.408922542918</v>
+        <v>5462.811290515621</v>
       </c>
       <c r="V44" t="n">
-        <v>4825.195766818853</v>
+        <v>4826.598134791557</v>
       </c>
       <c r="W44" t="n">
-        <v>4180.374073908805</v>
+        <v>4181.776441881509</v>
       </c>
       <c r="X44" t="n">
-        <v>3582.109595665706</v>
+        <v>3583.51196363841</v>
       </c>
       <c r="Y44" t="n">
-        <v>3065.627340430548</v>
+        <v>3067.029708403252</v>
       </c>
     </row>
     <row r="45">
@@ -7709,76 +7709,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2287.112034235913</v>
+        <v>2287.112034235904</v>
       </c>
       <c r="C45" t="n">
-        <v>1922.364647927308</v>
+        <v>1922.364647927298</v>
       </c>
       <c r="D45" t="n">
-        <v>1570.912438939729</v>
+        <v>1570.91243893972</v>
       </c>
       <c r="E45" t="n">
-        <v>1224.779007402444</v>
+        <v>1224.779007402434</v>
       </c>
       <c r="F45" t="n">
-        <v>881.7120959500428</v>
+        <v>881.7120959500332</v>
       </c>
       <c r="G45" t="n">
-        <v>555.8565327448503</v>
+        <v>555.8565327448407</v>
       </c>
       <c r="H45" t="n">
-        <v>250.9899876546974</v>
+        <v>250.9899876546879</v>
       </c>
       <c r="I45" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J45" t="n">
-        <v>558.8475295149312</v>
+        <v>558.8475295149217</v>
       </c>
       <c r="K45" t="n">
-        <v>1250.415257213088</v>
+        <v>1250.415257213079</v>
       </c>
       <c r="L45" t="n">
-        <v>2197.270784374326</v>
+        <v>2197.270784374317</v>
       </c>
       <c r="M45" t="n">
-        <v>3071.633876117186</v>
+        <v>3071.633876117176</v>
       </c>
       <c r="N45" t="n">
-        <v>4014.06020421532</v>
+        <v>4014.06020421531</v>
       </c>
       <c r="O45" t="n">
-        <v>4993.313206182058</v>
+        <v>4993.313206182049</v>
       </c>
       <c r="P45" t="n">
-        <v>5699.926775368545</v>
+        <v>5699.926775368536</v>
       </c>
       <c r="Q45" t="n">
-        <v>5925.707874249725</v>
+        <v>5925.707874249716</v>
       </c>
       <c r="R45" t="n">
-        <v>5569.989306372918</v>
+        <v>5569.989306372909</v>
       </c>
       <c r="S45" t="n">
-        <v>5159.222422432132</v>
+        <v>5157.673230555786</v>
       </c>
       <c r="T45" t="n">
-        <v>4762.564674070625</v>
+        <v>4761.01548219428</v>
       </c>
       <c r="U45" t="n">
-        <v>4358.520619043183</v>
+        <v>4356.971427166837</v>
       </c>
       <c r="V45" t="n">
-        <v>3939.822975415385</v>
+        <v>3938.273783539039</v>
       </c>
       <c r="W45" t="n">
-        <v>3503.082427021619</v>
+        <v>3503.082427021609</v>
       </c>
       <c r="X45" t="n">
-        <v>3078.978649804055</v>
+        <v>3078.978649804046</v>
       </c>
       <c r="Y45" t="n">
-        <v>2675.553000545334</v>
+        <v>2675.553000545324</v>
       </c>
     </row>
     <row r="46">
@@ -7788,76 +7788,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="C46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="D46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="E46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="F46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="G46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="H46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="I46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="J46" t="n">
-        <v>290.4466099967231</v>
+        <v>290.4466099967136</v>
       </c>
       <c r="K46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="L46" t="n">
-        <v>307.8416045893292</v>
+        <v>307.8416045893197</v>
       </c>
       <c r="M46" t="n">
-        <v>307.8416045893292</v>
+        <v>199.10662701761</v>
       </c>
       <c r="N46" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="O46" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="P46" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="Q46" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="R46" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="S46" t="n">
-        <v>307.8416045893292</v>
+        <v>140.96</v>
       </c>
       <c r="T46" t="n">
-        <v>293.2980670267016</v>
+        <v>140.96</v>
       </c>
       <c r="U46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="V46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="W46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="X46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.9600000000096</v>
+        <v>140.96</v>
       </c>
     </row>
   </sheetData>
@@ -7981,16 +7981,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>763.2599394199342</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7999,16 +7999,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>822.5705182964564</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8218,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J5" t="n">
         <v>430.3047365861567</v>
@@ -8227,16 +8227,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>207.178686963689</v>
       </c>
       <c r="M5" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>842.6516333931884</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>242.3879257639015</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8455,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>637.4834235498456</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>713.835238741533</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8695,16 +8695,16 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K11" t="n">
-        <v>419.8640113927013</v>
+        <v>214.6916570402936</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>835.1386633165832</v>
       </c>
       <c r="M11" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -8941,16 +8941,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1060.271045550332</v>
+        <v>609.5571242689469</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>496.2158265843873</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9169,7 +9169,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J17" t="n">
-        <v>430.3047365861567</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9187,13 +9187,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>433.9782470873024</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q17" t="n">
-        <v>615.8520732695737</v>
+        <v>609.5571242689</v>
       </c>
       <c r="R17" t="n">
-        <v>176.4768357658285</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J20" t="n">
-        <v>419.8640113927013</v>
+        <v>383.4716344542364</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9415,10 +9415,10 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9430,7 +9430,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>176.4768357656695</v>
+        <v>176.4768357661399</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>120.6470157237802</v>
       </c>
       <c r="J23" t="n">
-        <v>430.3047365861567</v>
+        <v>383.4716344542459</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>315.9139665186176</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9664,10 +9664,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,13 +9877,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K26" t="n">
-        <v>301.7997308240109</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>65.91108999869311</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9904,7 +9904,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10114,19 +10114,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>721.5474740433916</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10135,13 +10135,13 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>870.5779326741233</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>609.55712426985</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>176.4768357656695</v>
+        <v>294.54111633436</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,34 +10351,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>301.7997308244828</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1096.663422488788</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>459.8234496463933</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,10 +10588,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>120.6470157237802</v>
+        <v>44.29520053209296</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>430.3047365861567</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10600,19 +10600,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1060.271045550332</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>255.6042028749013</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>870.5779326741233</v>
       </c>
       <c r="Q35" t="n">
-        <v>419.8640113931723</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>176.4768357656695</v>
@@ -10825,7 +10825,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -10834,16 +10834,16 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>21.63135028061606</v>
       </c>
       <c r="M38" t="n">
-        <v>822.5705182969285</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>842.6516333933048</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10852,7 +10852,7 @@
         <v>615.8520732695737</v>
       </c>
       <c r="R38" t="n">
-        <v>294.54111633436</v>
+        <v>176.4768357656695</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,13 +11062,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>44.29520053209296</v>
+        <v>120.6470157237802</v>
       </c>
       <c r="J41" t="n">
         <v>430.3047365861567</v>
       </c>
       <c r="K41" t="n">
-        <v>510.330062279462</v>
+        <v>716.8751175230994</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11080,13 +11080,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>332.955202833778</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>615.8520732695737</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>176.4768357656695</v>
@@ -11305,19 +11305,19 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>713.8352387415232</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1060.271045550332</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>842.6516333931884</v>
+        <v>496.2158265843873</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.388344292976456</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23314,7 +23314,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T13" t="n">
-        <v>33.55489271692966</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U13" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V13" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W13" t="n">
         <v>226.3728098387097</v>
@@ -23500,7 +23500,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23518,7 +23518,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.388344292938598</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1.533699957572765</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23749,13 +23749,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.388344292985664</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.388344292819738</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23992,7 +23992,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.388344292976399</v>
+        <v>1.388344292524607</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24168,10 +24168,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>142.3116902230136</v>
+        <v>168.0209277307011</v>
       </c>
       <c r="O22" t="n">
-        <v>268.0582198167198</v>
+        <v>242.3489823090323</v>
       </c>
       <c r="P22" t="n">
         <v>368.8061924102448</v>
@@ -24229,7 +24229,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>1.388344292970999</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T25" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U25" t="n">
         <v>150.8146863564251</v>
@@ -24432,7 +24432,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W25" t="n">
-        <v>61.16002129528326</v>
+        <v>226.3728098387097</v>
       </c>
       <c r="X25" t="n">
         <v>247.4436454301076</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24505,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.388344292524721</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>608.1413738827905</v>
       </c>
       <c r="S28" t="n">
-        <v>316.45975839138</v>
+        <v>302.0616562043788</v>
       </c>
       <c r="T28" t="n">
         <v>198.7676812603561</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>184.7722080292149</v>
+        <v>199.1703102162162</v>
       </c>
       <c r="W28" t="n">
         <v>226.3728098387097</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.388344289559313</v>
+        <v>1.388344290130249</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>1.533699956568569</v>
       </c>
       <c r="S30" t="n">
-        <v>1.533699956524686</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -24928,7 +24928,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.388344292524664</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24940,7 +24940,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1.388344292514034</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T34" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U34" t="n">
         <v>150.8146863564251</v>
@@ -25143,7 +25143,7 @@
         <v>199.1703102162162</v>
       </c>
       <c r="W34" t="n">
-        <v>226.3728098387097</v>
+        <v>61.16002129528326</v>
       </c>
       <c r="X34" t="n">
         <v>247.4436454301076</v>
@@ -25177,7 +25177,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>1.388344292514034</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.388344292525176</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25286,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S36" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>316.45975839138</v>
       </c>
       <c r="T37" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U37" t="n">
-        <v>150.8146863564251</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>199.1703102162162</v>
       </c>
       <c r="W37" t="n">
-        <v>226.3728098387097</v>
+        <v>211.9747076517084</v>
       </c>
       <c r="X37" t="n">
         <v>247.4436454301076</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.388344292513807</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25408,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.388344292524664</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>368.8061924102448</v>
       </c>
       <c r="Q40" t="n">
-        <v>340.0154778821716</v>
+        <v>505.228266425598</v>
       </c>
       <c r="R40" t="n">
         <v>608.1413738827905</v>
@@ -25608,7 +25608,7 @@
         <v>316.45975839138</v>
       </c>
       <c r="T40" t="n">
-        <v>198.7676812603561</v>
+        <v>33.55489271692966</v>
       </c>
       <c r="U40" t="n">
         <v>150.8146863564251</v>
@@ -25636,13 +25636,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.388344292976171</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.388344292514091</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25760,10 +25760,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>1.53369995757339</v>
       </c>
       <c r="S42" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25845,13 +25845,13 @@
         <v>316.45975839138</v>
       </c>
       <c r="T43" t="n">
-        <v>33.55489271692969</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U43" t="n">
         <v>150.8146863564251</v>
       </c>
       <c r="V43" t="n">
-        <v>199.1703102162162</v>
+        <v>33.95752167278977</v>
       </c>
       <c r="W43" t="n">
         <v>226.3728098387097</v>
@@ -25879,7 +25879,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1.388344292985892</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>1.533699957572765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26012,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.533699957572821</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26061,10 +26061,10 @@
         <v>31.85592323974635</v>
       </c>
       <c r="M46" t="n">
-        <v>107.6476277959926</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>168.0209277307011</v>
+        <v>110.4557669832672</v>
       </c>
       <c r="O46" t="n">
         <v>268.0582198167198</v>
@@ -26082,10 +26082,10 @@
         <v>316.45975839138</v>
       </c>
       <c r="T46" t="n">
-        <v>184.3695790733548</v>
+        <v>198.7676812603561</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>150.8146863564251</v>
       </c>
       <c r="V46" t="n">
         <v>199.1703102162162</v>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15096.00000993379</v>
+        <v>1240465.351388876</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30103.21645018752</v>
+        <v>2468357.965713155</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>45110.43289044122</v>
+        <v>3696250.580037436</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>62191.16103297014</v>
+        <v>4796092.45366189</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>79271.88917549909</v>
+        <v>5895934.327286346</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>96352.61731802802</v>
+        <v>6995776.200910792</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>113433.3454605569</v>
+        <v>8095618.074535272</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>130514.0736030859</v>
+        <v>9195459.948159713</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147594.8017456148</v>
+        <v>10295301.82178419</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>164675.5298881427</v>
+        <v>11395143.6954089</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>181756.2580306716</v>
+        <v>12494985.56903338</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>198836.9861732006</v>
+        <v>13594827.44265787</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>215917.7143157296</v>
+        <v>14694669.31628237</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>232998.4424582588</v>
+        <v>15794511.18990683</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>250079.1706007879</v>
+        <v>16894353.06353129</v>
       </c>
     </row>
   </sheetData>
@@ -26319,49 +26319,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>976017.2062577608</v>
+        <v>976017.2062577606</v>
       </c>
       <c r="C2" t="n">
+        <v>976017.2062577606</v>
+      </c>
+      <c r="D2" t="n">
         <v>976017.2062577605</v>
-      </c>
-      <c r="D2" t="n">
-        <v>976017.2062577606</v>
       </c>
       <c r="E2" t="n">
         <v>874233.2841630249</v>
       </c>
       <c r="F2" t="n">
+        <v>874233.2841630271</v>
+      </c>
+      <c r="G2" t="n">
+        <v>874233.2841630242</v>
+      </c>
+      <c r="H2" t="n">
+        <v>874233.2841630528</v>
+      </c>
+      <c r="I2" t="n">
+        <v>874233.2841630249</v>
+      </c>
+      <c r="J2" t="n">
+        <v>874233.2841630527</v>
+      </c>
+      <c r="K2" t="n">
+        <v>874233.2841632336</v>
+      </c>
+      <c r="L2" t="n">
+        <v>874233.2841630529</v>
+      </c>
+      <c r="M2" t="n">
+        <v>874233.2841630526</v>
+      </c>
+      <c r="N2" t="n">
+        <v>874233.2841630527</v>
+      </c>
+      <c r="O2" t="n">
         <v>874233.2841630246</v>
       </c>
-      <c r="G2" t="n">
-        <v>874233.2841630344</v>
-      </c>
-      <c r="H2" t="n">
-        <v>874233.2841630251</v>
-      </c>
-      <c r="I2" t="n">
-        <v>874233.284163025</v>
-      </c>
-      <c r="J2" t="n">
-        <v>874233.2841630249</v>
-      </c>
-      <c r="K2" t="n">
-        <v>874233.2841632701</v>
-      </c>
-      <c r="L2" t="n">
-        <v>874233.2841630536</v>
-      </c>
-      <c r="M2" t="n">
-        <v>874233.2841630535</v>
-      </c>
-      <c r="N2" t="n">
-        <v>874233.2841630531</v>
-      </c>
-      <c r="O2" t="n">
-        <v>874233.2841630531</v>
-      </c>
       <c r="P2" t="n">
-        <v>874233.2841630243</v>
+        <v>874233.2841630247</v>
       </c>
     </row>
     <row r="3">
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.097819328308105e-08</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-3.931152661641439e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>620224.0000000001</v>
+        <v>620224.0000000411</v>
       </c>
       <c r="K3" t="n">
-        <v>8.355709724128246e-08</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-3.983539556463559e-08</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26435,37 +26435,37 @@
         <v>13783.46259850302</v>
       </c>
       <c r="F4" t="n">
+        <v>13783.46259850317</v>
+      </c>
+      <c r="G4" t="n">
+        <v>13783.46259850298</v>
+      </c>
+      <c r="H4" t="n">
+        <v>13783.46259850491</v>
+      </c>
+      <c r="I4" t="n">
         <v>13783.46259850302</v>
       </c>
-      <c r="G4" t="n">
-        <v>13783.46259850367</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>13783.46259850492</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13783.4625986342</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13783.46259850491</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13783.46259850491</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13783.46259850491</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13783.46259850303</v>
+      </c>
+      <c r="P4" t="n">
         <v>13783.46259850302</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13783.46259850304</v>
-      </c>
-      <c r="J4" t="n">
-        <v>13783.46259850302</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13783.46259864167</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13783.46259850496</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13783.46259850496</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13783.46259850496</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13783.46259850496</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13783.46259850299</v>
       </c>
     </row>
     <row r="5">
@@ -26490,34 +26490,34 @@
         <v>138979.4</v>
       </c>
       <c r="G5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000071</v>
       </c>
       <c r="H5" t="n">
-        <v>138979.4</v>
+        <v>138979.4000000071</v>
       </c>
       <c r="I5" t="n">
         <v>138979.4</v>
       </c>
       <c r="J5" t="n">
+        <v>138979.4000000071</v>
+      </c>
+      <c r="K5" t="n">
+        <v>138979.4000000071</v>
+      </c>
+      <c r="L5" t="n">
+        <v>138979.4000000071</v>
+      </c>
+      <c r="M5" t="n">
+        <v>138979.4000000071</v>
+      </c>
+      <c r="N5" t="n">
+        <v>138979.4000000071</v>
+      </c>
+      <c r="O5" t="n">
         <v>138979.4</v>
       </c>
-      <c r="K5" t="n">
-        <v>138979.4000000145</v>
-      </c>
-      <c r="L5" t="n">
-        <v>138979.4000000073</v>
-      </c>
-      <c r="M5" t="n">
-        <v>138979.4000000073</v>
-      </c>
-      <c r="N5" t="n">
-        <v>138979.4000000073</v>
-      </c>
-      <c r="O5" t="n">
-        <v>138979.4000000073</v>
-      </c>
       <c r="P5" t="n">
-        <v>138979.4000000073</v>
+        <v>138979.4</v>
       </c>
     </row>
     <row r="6">
@@ -26530,46 +26530,46 @@
         <v>-1330364.597563874</v>
       </c>
       <c r="C6" t="n">
-        <v>714636.3534906065</v>
+        <v>714636.3534906066</v>
       </c>
       <c r="D6" t="n">
-        <v>714938.7141605397</v>
+        <v>714938.7141605396</v>
       </c>
       <c r="E6" t="n">
         <v>721470.4215645219</v>
       </c>
       <c r="F6" t="n">
+        <v>721470.4215645238</v>
+      </c>
+      <c r="G6" t="n">
+        <v>721470.4215644731</v>
+      </c>
+      <c r="H6" t="n">
+        <v>721470.4215645408</v>
+      </c>
+      <c r="I6" t="n">
+        <v>721470.4215645628</v>
+      </c>
+      <c r="J6" t="n">
+        <v>101246.4215644996</v>
+      </c>
+      <c r="K6" t="n">
+        <v>721470.4215645923</v>
+      </c>
+      <c r="L6" t="n">
+        <v>721470.4215645409</v>
+      </c>
+      <c r="M6" t="n">
+        <v>721470.4215645406</v>
+      </c>
+      <c r="N6" t="n">
+        <v>721470.4215645407</v>
+      </c>
+      <c r="O6" t="n">
         <v>721470.4215645216</v>
       </c>
-      <c r="G6" t="n">
-        <v>721470.4215645307</v>
-      </c>
-      <c r="H6" t="n">
-        <v>721470.4215645221</v>
-      </c>
-      <c r="I6" t="n">
-        <v>721470.421564522</v>
-      </c>
-      <c r="J6" t="n">
-        <v>101246.4215645217</v>
-      </c>
-      <c r="K6" t="n">
-        <v>721470.4215645305</v>
-      </c>
-      <c r="L6" t="n">
-        <v>721470.421564583</v>
-      </c>
-      <c r="M6" t="n">
-        <v>721470.4215645413</v>
-      </c>
-      <c r="N6" t="n">
-        <v>721470.4215645409</v>
-      </c>
-      <c r="O6" t="n">
-        <v>721470.4215645409</v>
-      </c>
       <c r="P6" t="n">
-        <v>721470.4215645141</v>
+        <v>721470.4215645217</v>
       </c>
     </row>
   </sheetData>
@@ -26934,34 +26934,34 @@
         <v>1762</v>
       </c>
       <c r="G4" t="n">
-        <v>1762</v>
+        <v>1762.000000000117</v>
       </c>
       <c r="H4" t="n">
-        <v>1762</v>
+        <v>1762.000000000117</v>
       </c>
       <c r="I4" t="n">
         <v>1762</v>
       </c>
       <c r="J4" t="n">
+        <v>1762.000000000117</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1762.000000000117</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1762.000000000117</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1762.000000000117</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1762.000000000117</v>
+      </c>
+      <c r="O4" t="n">
         <v>1762</v>
       </c>
-      <c r="K4" t="n">
-        <v>1762.000000000238</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1762.00000000012</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1762.00000000012</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1762.00000000012</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1762.00000000012</v>
-      </c>
       <c r="P4" t="n">
-        <v>1762.00000000012</v>
+        <v>1762</v>
       </c>
     </row>
   </sheetData>
@@ -27037,37 +27037,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27144,34 +27144,34 @@
         <v>1762</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>1.093130490996621e-10</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-1.093130490996621e-10</v>
       </c>
       <c r="J4" t="n">
-        <v>1762</v>
+        <v>1762.00000000011</v>
       </c>
       <c r="K4" t="n">
-        <v>2.302758444354615e-10</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.111320385032079e-10</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27402,7 +27402,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.164153218269348e-10</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.388344292976399</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27559,7 +27559,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.388344292976512</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27608,7 +27608,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27635,7 +27635,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.53369995757339</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>1.388344292976399</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27796,7 +27796,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.388344292976512</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.533699957573049</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.533699957572935</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27933,16 +27933,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M7" t="n">
-        <v>126.870883593696</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N7" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O7" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P7" t="n">
         <v>368.8061924102448</v>
@@ -28076,13 +28076,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.533699957572992</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.533699957573063</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28170,16 +28170,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>31.85592323974635</v>
+        <v>183.02095922073</v>
       </c>
       <c r="M10" t="n">
-        <v>126.870883593696</v>
+        <v>107.6476277959926</v>
       </c>
       <c r="N10" t="n">
         <v>168.0209277307011</v>
       </c>
       <c r="O10" t="n">
-        <v>400</v>
+        <v>268.0582198167198</v>
       </c>
       <c r="P10" t="n">
         <v>368.8061924102448</v>
@@ -29641,25 +29641,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="C29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="D29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="E29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="F29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="G29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="H29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29692,25 +29692,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="T29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="U29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="V29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="W29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="X29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="Y29" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
     </row>
     <row r="30">
@@ -29744,28 +29744,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="K30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="L30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="P30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>1.709850039333106e-10</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.78260961547494e-10</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -34825,16 +34825,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J2" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K2" t="n">
-        <v>747.1142864321608</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L2" t="n">
-        <v>926.8613366834174</v>
+        <v>1690.121276103352</v>
       </c>
       <c r="M2" t="n">
         <v>487.0496964782857</v>
@@ -34843,16 +34843,16 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O2" t="n">
-        <v>1741.918884903268</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P2" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q2" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R2" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -35062,25 +35062,25 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J5" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K5" t="n">
-        <v>747.1142864321607</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L5" t="n">
-        <v>926.8613366834174</v>
+        <v>1134.040023647106</v>
       </c>
       <c r="M5" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N5" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O5" t="n">
-        <v>919.3483666068121</v>
+        <v>1762</v>
       </c>
       <c r="P5" t="n">
         <v>844.3104324216301</v>
@@ -35089,7 +35089,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R5" t="n">
-        <v>65.91108999823197</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35229,16 +35229,16 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="M7" t="n">
-        <v>19.22325579770342</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35299,16 +35299,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K8" t="n">
-        <v>1384.597709982007</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L8" t="n">
-        <v>926.861336683417</v>
+        <v>1640.69657542495</v>
       </c>
       <c r="M8" t="n">
         <v>487.0496964782857</v>
@@ -35466,16 +35466,16 @@
         <v>17.57070160869296</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>151.1650359809836</v>
       </c>
       <c r="M10" t="n">
-        <v>19.22325579770342</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>131.9417801832802</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35539,16 +35539,16 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J11" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K11" t="n">
-        <v>1166.978297824862</v>
+        <v>961.8059434724546</v>
       </c>
       <c r="L11" t="n">
-        <v>926.8613366834172</v>
+        <v>1762</v>
       </c>
       <c r="M11" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N11" t="n">
         <v>570.7505695683558</v>
@@ -35773,28 +35773,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J14" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K14" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L14" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M14" t="n">
-        <v>1547.320742028618</v>
+        <v>1096.606820747233</v>
       </c>
       <c r="N14" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O14" t="n">
-        <v>1415.564193191199</v>
+        <v>919.3483666068121</v>
       </c>
       <c r="P14" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q14" t="n">
         <v>461.4348583860824</v>
@@ -36013,13 +36013,13 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J17" t="n">
-        <v>893.7563986827749</v>
+        <v>463.4516620966183</v>
       </c>
       <c r="K17" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L17" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M17" t="n">
         <v>487.0496964782857</v>
@@ -36031,13 +36031,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P17" t="n">
-        <v>1278.288679508933</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q17" t="n">
-        <v>1077.286931655656</v>
+        <v>1070.991982654982</v>
       </c>
       <c r="R17" t="n">
-        <v>1.589319024310268e-10</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36250,19 +36250,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J20" t="n">
-        <v>883.3156734893196</v>
+        <v>846.9232965508547</v>
       </c>
       <c r="K20" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321605</v>
       </c>
       <c r="L20" t="n">
         <v>926.8613366834172</v>
       </c>
       <c r="M20" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N20" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O20" t="n">
         <v>919.3483666068121</v>
@@ -36274,7 +36274,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.703649366744841e-10</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36487,19 +36487,19 @@
         <v>76.35181519168728</v>
       </c>
       <c r="J23" t="n">
-        <v>893.7563986827749</v>
+        <v>846.9232965508642</v>
       </c>
       <c r="K23" t="n">
-        <v>747.114286432161</v>
+        <v>747.1142864321605</v>
       </c>
       <c r="L23" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834172</v>
       </c>
       <c r="M23" t="n">
         <v>487.0496964782857</v>
       </c>
       <c r="N23" t="n">
-        <v>886.6645360869733</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O23" t="n">
         <v>919.3483666068121</v>
@@ -36508,10 +36508,10 @@
         <v>844.3104324216301</v>
       </c>
       <c r="Q23" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R23" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36721,16 +36721,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K26" t="n">
-        <v>1048.914017256172</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L26" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M26" t="n">
         <v>1547.320742028618</v>
@@ -36739,7 +36739,7 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O26" t="n">
-        <v>919.3483666068121</v>
+        <v>985.2594566055051</v>
       </c>
       <c r="P26" t="n">
         <v>844.3104324216301</v>
@@ -36748,7 +36748,7 @@
         <v>461.4348583860824</v>
       </c>
       <c r="R26" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36958,19 +36958,19 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K29" t="n">
-        <v>747.1142864321607</v>
+        <v>1463.989403955261</v>
       </c>
       <c r="L29" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M29" t="n">
-        <v>487.0496964782857</v>
+        <v>1208.597170521677</v>
       </c>
       <c r="N29" t="n">
         <v>570.7505695683558</v>
@@ -36979,13 +36979,13 @@
         <v>919.3483666068121</v>
       </c>
       <c r="P29" t="n">
-        <v>1714.888365095753</v>
+        <v>844.3104324216301</v>
       </c>
       <c r="Q29" t="n">
-        <v>1070.991982655932</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.0642805686905</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37040,28 +37040,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>422.1086156718163</v>
+        <v>422.108615671809</v>
       </c>
       <c r="K30" t="n">
-        <v>698.553260301347</v>
+        <v>698.5532603013397</v>
       </c>
       <c r="L30" t="n">
-        <v>956.4197244054692</v>
+        <v>956.4197244052909</v>
       </c>
       <c r="M30" t="n">
-        <v>883.1950421646825</v>
+        <v>883.1950421646752</v>
       </c>
       <c r="N30" t="n">
-        <v>951.9457859577115</v>
+        <v>951.9457859578824</v>
       </c>
       <c r="O30" t="n">
-        <v>989.1444464310483</v>
+        <v>989.1444464312193</v>
       </c>
       <c r="P30" t="n">
-        <v>713.7510799865296</v>
+        <v>713.7510799865223</v>
       </c>
       <c r="Q30" t="n">
-        <v>228.0617160417742</v>
+        <v>228.0617160415959</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37195,34 +37195,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K32" t="n">
-        <v>1048.914017256644</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L32" t="n">
-        <v>926.8613366834172</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M32" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N32" t="n">
-        <v>570.7505695683558</v>
+        <v>1667.413992057144</v>
       </c>
       <c r="O32" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P32" t="n">
-        <v>844.3104324216301</v>
+        <v>1304.133882068023</v>
       </c>
       <c r="Q32" t="n">
         <v>461.4348583860824</v>
       </c>
       <c r="R32" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37432,31 +37432,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>76.35181519168728</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>463.4516620966183</v>
+        <v>893.7563986827749</v>
       </c>
       <c r="K35" t="n">
-        <v>747.1142864321608</v>
+        <v>747.114286432161</v>
       </c>
       <c r="L35" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M35" t="n">
-        <v>1547.320742028618</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N35" t="n">
-        <v>570.7505695683558</v>
+        <v>826.3547724432569</v>
       </c>
       <c r="O35" t="n">
         <v>919.3483666068121</v>
       </c>
       <c r="P35" t="n">
-        <v>844.3104324216301</v>
+        <v>1714.888365095753</v>
       </c>
       <c r="Q35" t="n">
-        <v>881.2988697792547</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37669,25 +37669,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J38" t="n">
         <v>463.4516620966183</v>
       </c>
       <c r="K38" t="n">
-        <v>747.1142864321607</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L38" t="n">
-        <v>926.861336683417</v>
+        <v>948.4926869640333</v>
       </c>
       <c r="M38" t="n">
-        <v>1309.620214775214</v>
+        <v>487.0496964782857</v>
       </c>
       <c r="N38" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O38" t="n">
-        <v>919.3483666068121</v>
+        <v>1762.000000000117</v>
       </c>
       <c r="P38" t="n">
         <v>844.3104324216301</v>
@@ -37696,7 +37696,7 @@
         <v>1077.286931655656</v>
       </c>
       <c r="R38" t="n">
-        <v>118.0642805686905</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37906,16 +37906,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>76.35181519168728</v>
       </c>
       <c r="J41" t="n">
         <v>893.7563986827749</v>
       </c>
       <c r="K41" t="n">
-        <v>1257.444348711623</v>
+        <v>1463.98940395526</v>
       </c>
       <c r="L41" t="n">
-        <v>926.8613366834174</v>
+        <v>926.861336683417</v>
       </c>
       <c r="M41" t="n">
         <v>487.0496964782857</v>
@@ -37924,13 +37924,13 @@
         <v>570.7505695683558</v>
       </c>
       <c r="O41" t="n">
-        <v>919.3483666068121</v>
+        <v>1252.30356944059</v>
       </c>
       <c r="P41" t="n">
         <v>844.3104324216301</v>
       </c>
       <c r="Q41" t="n">
-        <v>1077.286931655656</v>
+        <v>461.4348583860824</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -38149,19 +38149,19 @@
         <v>463.4516620966183</v>
       </c>
       <c r="K44" t="n">
-        <v>1460.949525173684</v>
+        <v>747.1142864321608</v>
       </c>
       <c r="L44" t="n">
-        <v>926.861336683417</v>
+        <v>926.8613366834174</v>
       </c>
       <c r="M44" t="n">
-        <v>487.0496964782857</v>
+        <v>1547.320742028618</v>
       </c>
       <c r="N44" t="n">
         <v>570.7505695683558</v>
       </c>
       <c r="O44" t="n">
-        <v>1762</v>
+        <v>1415.564193191199</v>
       </c>
       <c r="P44" t="n">
         <v>844.3104324216301</v>
